--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\STUDY\Python\Camera Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdm\Desktop\gitHubLocale\Camera Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4317D7AC-F495-46DC-943C-B69E1340A316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DDD161-1B06-4207-8BC5-7875D6DAF6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B2D6E9FE-7E10-4644-B79E-3F83BB51D227}"/>
   </bookViews>
@@ -18098,8 +18098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E390C50C-648D-4A0C-B720-9B91BBF97073}">
   <dimension ref="A1:C6071"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="E710" sqref="E710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84936,5 +84936,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>